--- a/data/n2v/tables/model-1200-1325-20230828-60.xlsx
+++ b/data/n2v/tables/model-1200-1325-20230828-60.xlsx
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
